--- a/Materials/Species Legend.xlsx
+++ b/Materials/Species Legend.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\SoftUni\EmeraldBotany\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369768A-5B3F-4CA4-9964-85EB3C189359}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89475DE4-B823-49B8-B6A9-04F38B096349}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,169 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>scientific_name</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>bibliography</t>
-  </si>
-  <si>
-    <t>common_name</t>
-  </si>
-  <si>
-    <t>family_common_name</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>flower_color</t>
-  </si>
-  <si>
-    <t>flower_conspicuous</t>
-  </si>
-  <si>
-    <t>foliage_color</t>
-  </si>
-  <si>
-    <t>foliage_texture</t>
-  </si>
-  <si>
-    <t>fruit_color</t>
-  </si>
-  <si>
-    <t>fruit_conspicuous</t>
-  </si>
-  <si>
-    <t>fruit_months</t>
-  </si>
-  <si>
-    <t>bloom_months</t>
-  </si>
-  <si>
-    <t>ground_humidity</t>
-  </si>
-  <si>
-    <t>growth_form</t>
-  </si>
-  <si>
-    <t>growth_habit</t>
-  </si>
-  <si>
-    <t>growth_months</t>
-  </si>
-  <si>
-    <t>growth_rate</t>
-  </si>
-  <si>
-    <t>edible_part</t>
-  </si>
-  <si>
-    <t>vegetable</t>
-  </si>
-  <si>
-    <t>edible</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>soil_nutriments</t>
-  </si>
-  <si>
-    <t>soil_salinity</t>
-  </si>
-  <si>
-    <t>anaerobic_tolerance</t>
-  </si>
-  <si>
-    <t>atmospheric_humidity</t>
-  </si>
-  <si>
-    <t>average_height_cm</t>
-  </si>
-  <si>
-    <t>maximum_height_cm</t>
-  </si>
-  <si>
-    <t>minimum_root_depth_cm</t>
-  </si>
-  <si>
-    <t>ph_maximum</t>
-  </si>
-  <si>
-    <t>ph_minimum</t>
-  </si>
-  <si>
-    <t>planting_days_to_harvest</t>
-  </si>
-  <si>
-    <t>planting_description</t>
-  </si>
-  <si>
-    <t>planting_sowing_description</t>
-  </si>
-  <si>
-    <t>planting_row_spacing_cm</t>
-  </si>
-  <si>
-    <t>planting_spread_cm</t>
-  </si>
-  <si>
-    <t>synonyms</t>
-  </si>
-  <si>
-    <t>distributions</t>
-  </si>
-  <si>
-    <t>common_names</t>
-  </si>
-  <si>
-    <t>url_usda</t>
-  </si>
-  <si>
-    <t>url_tropicos</t>
-  </si>
-  <si>
-    <t>url_tela_botanica</t>
-  </si>
-  <si>
-    <t>url_powo</t>
-  </si>
-  <si>
-    <t>url_plantnet</t>
-  </si>
-  <si>
-    <t>url_gbif</t>
-  </si>
-  <si>
-    <t>url_openfarm</t>
-  </si>
-  <si>
-    <t>url_catminat</t>
-  </si>
-  <si>
-    <t>url_wikipedia_en</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Abies balsamea</t>
   </si>
@@ -314,13 +151,172 @@
     <t>https://+B38:C51www.gbif.org/species/2685580</t>
   </si>
   <si>
-    <t>5.5.2020+B18:C20B38:C51</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>ScientificName</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Bibliography</t>
+  </si>
+  <si>
+    <t>CommonName</t>
+  </si>
+  <si>
+    <t>FamilyCommonName</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
+    <t>FlowerColor</t>
+  </si>
+  <si>
+    <t>FlowerConspicuous</t>
+  </si>
+  <si>
+    <t>FoliageColor</t>
+  </si>
+  <si>
+    <t>FoliageTexture</t>
+  </si>
+  <si>
+    <t>FruitColor</t>
+  </si>
+  <si>
+    <t>FruitConspicuous</t>
+  </si>
+  <si>
+    <t>FruitMonths</t>
+  </si>
+  <si>
+    <t>BloomMonths</t>
+  </si>
+  <si>
+    <t>GroundHumidity</t>
+  </si>
+  <si>
+    <t>GrowthForm</t>
+  </si>
+  <si>
+    <t>GrowthHabit</t>
+  </si>
+  <si>
+    <t>GrowthMonths</t>
+  </si>
+  <si>
+    <t>GrowthRate</t>
+  </si>
+  <si>
+    <t>EdiblePart</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Edible</t>
+  </si>
+  <si>
+    <t>SoilNutriments</t>
+  </si>
+  <si>
+    <t>SoilSalinity</t>
+  </si>
+  <si>
+    <t>AnaerobicTolerance</t>
+  </si>
+  <si>
+    <t>AtmosphericHumidity</t>
+  </si>
+  <si>
+    <t>AverageHeightCm</t>
+  </si>
+  <si>
+    <t>MaximumHeightCm</t>
+  </si>
+  <si>
+    <t>MinimumRootDepthCm</t>
+  </si>
+  <si>
+    <t>PhMaximum</t>
+  </si>
+  <si>
+    <t>PhMinimum</t>
+  </si>
+  <si>
+    <t>PlantingDaysToHarvest</t>
+  </si>
+  <si>
+    <t>PlantingDescription</t>
+  </si>
+  <si>
+    <t>PlantingSowingDescription</t>
+  </si>
+  <si>
+    <t>PlantingRowSpacingCm</t>
+  </si>
+  <si>
+    <t>PlantingSpreadCm</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Distributions</t>
+  </si>
+  <si>
+    <t>CommonNames</t>
+  </si>
+  <si>
+    <t>UrlUsda</t>
+  </si>
+  <si>
+    <t>UrlTropicos</t>
+  </si>
+  <si>
+    <t>UrlTelaBotanica</t>
+  </si>
+  <si>
+    <t>UrlPowo</t>
+  </si>
+  <si>
+    <t>UrlPlantnet</t>
+  </si>
+  <si>
+    <t>UrlGbif</t>
+  </si>
+  <si>
+    <t>UrlOpenfarm</t>
+  </si>
+  <si>
+    <t>UrlCatminat</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>UrlWikipediaEn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,21 +357,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
-    <cellStyle name="Хипервръзка" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,560 +686,724 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382B6081-3F24-4307-8D4E-56BD13854FB4}">
-  <dimension ref="A1:C54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="228.28515625" customWidth="1"/>
-    <col min="3" max="3" width="158" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="90.77734375" customWidth="1"/>
+    <col min="4" max="4" width="78.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1">
         <v>101119</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="3">
         <v>101126</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
+      <c r="B2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
+      <c r="B4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
         <v>1768</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="3">
         <v>1861</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
+      <c r="B7" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
+      <c r="B8" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
+      <c r="B9" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
+      <c r="B10" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
+      <c r="B11" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
+      <c r="B12" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="b">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
+      <c r="B15" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="b">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
+      <c r="B21" t="s">
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
+      <c r="B22" t="s">
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>69</v>
+      <c r="B24" t="s">
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="b">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="b">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>7</v>
+      <c r="B28" t="s">
+        <v>92</v>
       </c>
       <c r="C28" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D28" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>5</v>
+      <c r="B29" t="s">
+        <v>67</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>68</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1">
         <v>1828</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="3">
         <v>3657</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1">
         <v>1828</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="3">
         <v>3657</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1">
         <v>50</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="2">
-        <v>44050</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="2">
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
       <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>73</v>
+      <c r="B43" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C51" r:id="rId1" xr:uid="{364F1F12-D370-45B8-AA67-AA2A28A94582}"/>
+    <hyperlink ref="D51" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>